--- a/medicine/Sexualité et sexologie/Vestibule_vulvaire/Vestibule_vulvaire.xlsx
+++ b/medicine/Sexualité et sexologie/Vestibule_vulvaire/Vestibule_vulvaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vestibule vulvaire (ou vestibule de la vulve, canal vulvaire, espace inter-labial) est la partie de la vulve située entre les petites lèvres comprenant le méat urétral (ou ostium externe de l'urètre) et l’entrée du vagin. Son bord est marqué par la ligne de Hart (en). Il représente l'extrémité inférieure du sinus urogénital (en) du stade embryonnaire. 
 Il se compose de deux parties de forme triangulaire : 
@@ -514,7 +526,9 @@
           <t>Structures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'urètre féminin, le vagin, les glandes de Bartholin et les glandes de Skene s'ouvrent dans le vestibule.
 L'orifice urétral externe (orificium urethræ externum ; méat urétral) se situe environ  28,5 mm sous le gland du clitoris  ((la) glans clitoridis et immédiatement au-dessus du vagin ; il a généralement la forme d’une courte fente sagittale avec des côtés légèrement surélevés. À proximité se trouvent les ouvertures des glandes de Skene.
@@ -550,7 +564,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence de la douleur associée au vestibule vulvaire est relativement commune. Une étude menée par l’Université du Michigan a révélé qu'environ 28 % des femmes ont connu dans le passé une douleur vestibulaire, dont environ 8 % au cours des six derniers mois.
 </t>
